--- a/xlsx/五大湖_intext.xlsx
+++ b/xlsx/五大湖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>五大湖</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_五大湖</t>
+    <t>人造卫星</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_五大湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BF%85%E5%88%A9%E5%B0%94%E6%B9%96</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E7%95%A5%E6%B9%96</t>
   </si>
   <si>
-    <t>蘇必略湖</t>
+    <t>苏必略湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%8F%E6%B5%B7</t>
   </si>
   <si>
-    <t>裏海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E6%B9%96</t>
@@ -131,21 +131,15 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>尼亞加拉瀑布</t>
+    <t>尼亚加拉瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%8B%9E%E5%80%AB%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>聖勞倫斯河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B9%96</t>
   </si>
   <si>
-    <t>休倫湖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B</t>
   </si>
   <si>
@@ -161,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>克里夫蘭 (俄亥俄州)</t>
+    <t>克里夫兰 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9_(%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊利 (賓夕法尼亞州)</t>
+    <t>伊利 (宾夕法尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E8%8E%B1%E5%A4%9A_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
@@ -197,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B8%AF</t>
   </si>
   <si>
-    <t>休倫港</t>
+    <t>休伦港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B0%BC%E4%BA%9E%E5%B8%82</t>
   </si>
   <si>
-    <t>薩尼亞市</t>
+    <t>萨尼亚市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -215,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%87%8C_(%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加里 (印第安納州)</t>
+    <t>加里 (印第安纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E8%B4%9D_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA</t>
   </si>
   <si>
-    <t>密爾瓦基</t>
+    <t>密尔瓦基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%BC%97%E6%96%AF%E5%9F%8E</t>
@@ -245,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E9%A0%93_(%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81)</t>
   </si>
   <si>
-    <t>金斯頓 (安大略省)</t>
+    <t>金斯顿 (安大略省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%B2%99%E5%8A%A0</t>
@@ -257,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%B2%99%E8%8F%AF</t>
   </si>
   <si>
-    <t>奧沙華</t>
+    <t>奥沙华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅徹斯特 (紐約州)</t>
+    <t>罗彻斯特 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>杜魯斯</t>
+    <t>杜鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%96%E7%91%AA%E9%BA%97_(%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇聖瑪麗 (密西根州)</t>
+    <t>苏圣玛丽 (密西根州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BF%85%E5%88%A9%E5%B0%94_(%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%B7%9E)</t>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E7%B4%80%E5%86%B0%E6%B2%B3</t>
   </si>
   <si>
-    <t>第四紀冰河</t>
+    <t>第四纪冰河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E5%A4%A7%E9%99%86%E6%80%A7%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>大湖效應</t>
+    <t>大湖效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%9B%E8%A1%8C%E9%A3%8E</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E7%A4%A6</t>
   </si>
   <si>
-    <t>鐵礦</t>
+    <t>铁矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E7%82%AD</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>伊利運河</t>
+    <t>伊利运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -377,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%97%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈得遜河</t>
+    <t>哈得逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%B3%E4%BC%A6%E6%96%AF%E8%88%AA%E9%81%93</t>
@@ -395,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B1%92%E9%AD%9A</t>
   </si>
   <si>
-    <t>鱒魚</t>
+    <t>鳟鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%B1%BC</t>
@@ -407,25 +401,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AD%E9%AD%9A</t>
   </si>
   <si>
-    <t>鮭魚</t>
+    <t>鲑鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%B0%BB</t>
   </si>
   <si>
-    <t>海鰻</t>
+    <t>海鳗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%A3%E9%AD%9A</t>
   </si>
   <si>
-    <t>釣魚</t>
+    <t>钓鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E6%B2%BF%E5%B2%B8%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
@@ -449,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%96%91%E7%8B%97%E9%AD%9A</t>
   </si>
   <si>
-    <t>白斑狗魚</t>
+    <t>白斑狗鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
@@ -473,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E8%90%8A%E7%88%BE%E6%B9%96_(%E5%8C%97%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>聖克萊爾湖 (北美洲)</t>
+    <t>圣克莱尔湖 (北美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%A7%86%E7%A7%91%E6%B9%96</t>
   </si>
   <si>
-    <t>錫姆科湖</t>
+    <t>锡姆科湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%B4%8D%E8%B2%9D%E6%88%88%E6%B9%96</t>
   </si>
   <si>
-    <t>溫納貝戈湖</t>
+    <t>温纳贝戈湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%B2%B3</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>喬治亞灣</t>
+    <t>乔治亚湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_George_(Michigan%E2%80%93Ontario)</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%E8%AF%BA%E6%B0%B4%E9%81%93</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%98%AD%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>威蘭運河</t>
+    <t>威兰运河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_Chicago</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1568,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1600,10 +1594,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1658,10 +1652,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1687,10 +1681,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1716,10 +1710,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1745,10 +1739,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
         <v>9</v>
@@ -1774,10 +1768,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1803,10 +1797,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1832,10 +1826,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1861,10 +1855,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1890,10 +1884,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1919,10 +1913,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1948,10 +1942,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1977,10 +1971,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2006,10 +2000,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2035,10 +2029,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2064,10 +2058,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2093,10 +2087,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2122,10 +2116,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2151,10 +2145,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2180,10 +2174,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2209,10 +2203,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2238,10 +2232,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2267,10 +2261,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2296,10 +2290,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2325,10 +2319,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2354,10 +2348,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2383,10 +2377,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2412,10 +2406,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2441,10 +2435,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2470,10 +2464,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2499,10 +2493,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2528,10 +2522,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2557,10 +2551,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2586,10 +2580,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2615,10 +2609,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2644,10 +2638,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2673,10 +2667,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2702,10 +2696,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2731,10 +2725,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2760,10 +2754,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2789,10 +2783,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2818,10 +2812,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2847,10 +2841,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2876,10 +2870,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2905,10 +2899,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2934,10 +2928,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2963,10 +2957,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2992,10 +2986,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3021,10 +3015,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3050,10 +3044,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3079,10 +3073,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3108,10 +3102,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3137,10 +3131,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3166,10 +3160,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3195,10 +3189,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3224,10 +3218,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3253,10 +3247,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3282,10 +3276,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3311,10 +3305,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3340,10 +3334,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3369,10 +3363,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3398,10 +3392,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3427,10 +3421,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3456,10 +3450,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3485,10 +3479,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3514,10 +3508,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3543,10 +3537,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3572,10 +3566,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3601,10 +3595,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3630,10 +3624,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3659,10 +3653,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3688,10 +3682,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3717,10 +3711,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3746,10 +3740,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3775,10 +3769,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3804,10 +3798,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -3833,10 +3827,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -3862,10 +3856,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3891,10 +3885,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3920,10 +3914,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -3949,10 +3943,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -3978,10 +3972,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4007,10 +4001,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4036,10 +4030,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
